--- a/public/templates/archive.xlsx
+++ b/public/templates/archive.xlsx
@@ -79,11 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,43 +436,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
